--- a/Data/20200114_result.xlsx
+++ b/Data/20200114_result.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$156</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -2304,7 +2307,7 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11631,6 +11634,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AD156"/>
   <hyperlinks>
     <hyperlink ref="AB2" r:id="rId1"/>
     <hyperlink ref="AB3" r:id="rId2"/>
